--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1438,15 +1438,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1512,10 +1507,15 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1643,15 +1643,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1721,10 +1716,15 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1871,15 +1871,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1948,12 +1943,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2024,7 +2020,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2091,7 +2087,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2151,9 +2147,21 @@
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2254,11 +2262,7 @@
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2315,7 +2319,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2366,7 +2370,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2405,7 +2409,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2444,7 +2448,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2499,7 +2503,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2554,7 +2558,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2605,7 +2609,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah &amp; Savannah at Hwy N PnR</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2666,7 +2670,11 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah &amp; Savannah at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -2720,21 +2728,9 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2789,17 +2785,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store?</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2848,17 +2844,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store?</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2931,15 +2927,19 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2998,19 +2998,15 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3070,12 +3066,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3142,12 +3138,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3213,18 +3209,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3290,17 +3285,18 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3337,18 +3333,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3389,17 +3384,18 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3432,12 +3428,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3475,12 +3471,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3522,12 +3518,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3569,12 +3565,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3616,12 +3612,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3659,12 +3655,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3712,9 +3708,21 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3795,11 +3803,7 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
@@ -3844,7 +3848,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3891,7 +3895,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3938,7 +3942,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3977,7 +3981,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4014,7 +4018,11 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4040,21 +4048,9 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4081,15 +4077,19 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4116,12 +4116,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4151,12 +4151,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4186,12 +4186,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4221,12 +4221,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4241,6 +4241,41 @@
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gray Van service at Anderson Dodge</t>
+          <t>*Gray Van service at Anderson Dodge</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -668,7 +668,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>**Camry 3 is swapping to Lexus this day</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -715,11 +719,7 @@
           <t> </t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -761,10 +761,14 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -811,7 +815,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DORN HARDWARE-SPORTING GOODS, MADISON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -858,7 +862,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1348 S MIDVALE BLVD</t>
+          <t>DORN HARDWARE-SPORTING GOODS, MADISON</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -905,7 +909,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CmoSK4YEZLv</t>
+          <t>1348 S MIDVALE BLVD</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -952,7 +956,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>https://goo.gl/maps/CmoSK4YEZLv</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -974,7 +978,11 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>*QIANA/MICHAEL - on way back, stay in touch with Palmer</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -995,7 +1003,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>We typically do not count anything in the backrooms. Only count backstock in the Store Room (areas 7-11)</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1012,21 +1020,13 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Looking to do Lexus to Camry 3 swap at 90 &amp; N gas station</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1040,7 +1040,11 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>We typically do not count anything in the backrooms. Only count backstock in the Store Room (areas 7-11)</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1063,22 +1067,9 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1103,21 +1094,13 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*Palmer will swap the Camry 3 to the Lexus at the store</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1155,15 +1138,19 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1184,16 +1171,8 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -1222,12 +1201,12 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1263,18 +1242,17 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1309,12 +1287,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1340,20 +1318,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1386,15 +1359,20 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1415,9 +1393,22 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3**</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1445,20 +1436,15 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1484,9 +1470,22 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3**</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1513,18 +1512,18 @@
       <c r="O22" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Lexus</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1549,11 +1548,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -1582,15 +1577,20 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1612,11 +1612,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1632,7 +1628,7 @@
       <c r="K24" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3</t>
+Lexus</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1650,12 +1646,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1687,7 +1683,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CONDON OIL #115, OSHKOSH</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1722,26 +1718,21 @@
       <c r="O25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Lexus</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1765,7 +1756,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4733 HWY 45 S</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1801,20 +1792,15 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1843,7 +1829,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ogWshZHQaJA2</t>
+          <t>CONDON OIL #115, OSHKOSH</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1878,18 +1864,18 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Lexus</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1915,7 +1901,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>4733 HWY 45 S</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1955,15 +1941,20 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -1992,7 +1983,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/ogWshZHQaJA2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2029,9 +2020,22 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Lexus</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -2059,7 +2063,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CONDON OIL #125, OSHKOSH</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2096,8 +2100,16 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2126,7 +2138,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>415 W MURDOCK</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2164,11 +2176,7 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
@@ -2197,7 +2205,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MN9h4JXUjeC2</t>
+          <t>CONDON OIL #125, OSHKOSH</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2223,11 +2231,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2242,7 +2246,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>415 W MURDOCK</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2268,7 +2276,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2284,21 +2292,13 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/MN9h4JXUjeC2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1600 ACADEMY DR</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2347,21 +2347,9 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2378,7 +2366,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
+          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2398,9 +2386,21 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2415,7 +2415,11 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>1600 ACADEMY DR</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2433,9 +2437,21 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2453,21 +2469,13 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2485,11 +2493,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2508,21 +2512,9 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2540,11 +2532,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2565,17 +2553,17 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2593,7 +2581,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2616,12 +2604,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2656,7 +2644,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4002 LINCOLNWAY</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2679,12 +2667,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2715,7 +2703,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2734,12 +2722,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2770,7 +2758,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>4002 LINCOLNWAY</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2801,12 +2789,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2835,7 +2823,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2860,12 +2852,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2893,21 +2885,13 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*IL Meet is 5:15 am at IL Office</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -2943,12 +2927,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2968,16 +2952,8 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -3010,12 +2986,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3037,18 +3013,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3082,12 +3057,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3109,12 +3084,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3154,12 +3129,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3181,15 +3156,20 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
@@ -3225,12 +3205,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3252,19 +3232,15 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3300,9 +3276,21 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3315,8 +3303,16 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -3347,9 +3343,21 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3362,9 +3370,21 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3400,11 +3420,7 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3443,11 +3459,7 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3488,7 +3500,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3535,7 +3547,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3582,7 +3594,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3627,7 +3639,11 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>5810 E STATE ST</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3669,21 +3685,13 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3724,16 +3732,8 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3761,15 +3761,19 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3808,12 +3812,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3855,12 +3859,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3902,12 +3906,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3947,8 +3951,16 @@
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3986,8 +3998,16 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -1458,7 +1458,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Optima</t>
         </is>
       </c>
@@ -1663,15 +1663,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1741,10 +1736,15 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1809,15 +1809,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1886,10 +1881,15 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1963,13 +1963,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2044,7 +2043,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2119,7 +2118,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2179,21 +2178,9 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -1561,7 +1561,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1602,7 +1606,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>work w/ Qiana</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1628,7 +1636,8 @@
       <c r="K24" t="inlineStr">
         <is>
           <t>Driver,
-Lexus</t>
+Lexus,
+work w/ Josh</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1642,7 +1651,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1727,7 +1740,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1812,7 +1829,11 @@
           <t>Qiana</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>work w/ Josh</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1855,7 +1876,11 @@
           <t>Michael N</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>work w/ Josh</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1870,7 +1895,8 @@
       <c r="S27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Lexus</t>
+Lexus,
+work w/ Josh</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -3296,7 +3296,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3356,21 +3356,9 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3472,7 +3460,11 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3513,7 +3505,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3560,7 +3552,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3607,7 +3599,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3654,7 +3646,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3699,11 +3691,7 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3745,9 +3733,21 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3774,19 +3774,15 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3825,12 +3821,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3872,12 +3868,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3919,12 +3915,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3966,12 +3962,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4011,16 +4007,8 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,11 +978,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>*QIANA/MICHAEL - on way back, stay in touch with Palmer</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1017,16 +1013,28 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>*Michael to drive back Red Camry that Katherine is bringing</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Looking to do Lexus to Camry 3 swap at 90 &amp; N gas station</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1048,28 +1056,33 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>*Nate taking Angela and to the store.  Meet at 4:30 am</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1102,55 +1115,37 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1177,36 +1172,46 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>@ Store, 1/2
+Optima*, Equip</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1258,41 +1263,40 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>w/ Nate*</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1330,49 +1334,44 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>4)</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Ashley P</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Driver,
 Silver Van</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1412,39 +1411,49 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1489,41 +1498,36 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Lexus</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1553,46 +1557,46 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1625,46 +1629,40 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Driver,
-Lexus,
-work w/ Josh</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1698,51 +1696,51 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>work w/ Josh</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Lexus</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>Driver, 1/2
+Camry 3,
+work w/ Josh</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1780,44 +1778,54 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1852,51 +1860,47 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>work w/ Josh</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Lexus,
-work w/ Josh</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1934,12 +1938,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1950,37 +1954,32 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Drive Red Camry back
+work w/ Josh</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -2015,12 +2014,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2031,36 +2030,24 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Lexus</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -2095,12 +2082,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2111,12 +2098,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2125,16 +2112,8 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2170,12 +2149,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2186,12 +2165,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2201,7 +2180,11 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2225,26 +2208,42 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>16)</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2268,12 +2267,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2289,7 +2288,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2315,12 +2314,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2330,17 +2329,13 @@
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1600 ACADEMY DR</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2364,14 +2359,26 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2379,7 +2386,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2422,17 +2429,13 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>1600 ACADEMY DR</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2467,28 +2470,32 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2512,7 +2519,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2520,14 +2527,26 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2551,7 +2570,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>PICK #183, MADISON-PARK ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2559,24 +2578,24 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2602,7 +2621,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1312 S PARK STREET</t>
+          <t>PICK #183, MADISON-PARK ST</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2610,19 +2629,19 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2665,7 +2684,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GVuttDgtBY82</t>
+          <t>1312 S PARK STREET</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2673,19 +2692,19 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah &amp; Savannah at Hwy N PnR</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2724,23 +2743,27 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL Office</t>
+          <t>https://goo.gl/maps/GVuttDgtBY82</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah &amp; Savannah at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2779,35 +2802,23 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>*IL Meet is 4:45 am at IL Office</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2844,33 +2855,37 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store?</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2906,46 +2921,38 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*Evelin/Justin - Palmer will swap Lexus to Camry 3 at the store</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store?</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2969,42 +2976,34 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3042,40 +3041,40 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3109,29 +3108,28 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3142,12 +3140,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3186,28 +3184,24 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store w/ Lori</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3216,21 +3210,9 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Nikki</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3257,53 +3239,40 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Lexus*</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3330,34 +3299,43 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3389,39 +3367,43 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Lexus*</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3439,30 +3421,39 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3482,18 +3473,30 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3505,7 +3508,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3526,21 +3529,17 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3552,7 +3551,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3573,21 +3572,17 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3597,11 +3592,7 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>5810 E STATE ST</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3622,19 +3613,19 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3643,13 +3634,21 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3669,19 +3668,19 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5213 ELEVATOR RD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3690,8 +3689,16 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3712,19 +3719,19 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3735,19 +3742,15 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3765,21 +3768,37 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5213 ELEVATOR RD</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3799,21 +3818,13 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3821,12 +3832,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3846,34 +3857,22 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3895,34 +3894,30 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3942,12 +3937,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3955,21 +3950,13 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3989,12 +3976,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4002,7 +3989,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4028,12 +4015,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4041,7 +4028,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4065,12 +4052,24 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4092,25 +4091,21 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4137,15 +4132,19 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4172,12 +4171,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4207,12 +4206,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4242,12 +4241,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4277,12 +4276,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4297,6 +4296,41 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3201,12 +3201,13 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3261,12 +3262,13 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Caitlin</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3320,13 +3322,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3389,12 +3390,13 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3440,13 +3442,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3496,12 +3497,13 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3539,7 +3541,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3582,7 +3584,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3625,7 +3627,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3680,7 +3682,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3731,7 +3733,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3782,7 +3784,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3826,9 +3828,21 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3909,11 +3923,7 @@
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3950,7 +3960,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3989,7 +3999,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4028,7 +4038,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4067,7 +4077,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4104,7 +4114,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4130,21 +4144,9 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4171,15 +4173,19 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4206,12 +4212,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4241,12 +4247,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4276,12 +4282,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4311,12 +4317,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4331,6 +4337,41 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +610,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>*Gray Van will be available to be picked up from Anderson*</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1064,7 +1068,11 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>*Nate/Angela - pick up Gray Van at Anderson Dodge after the store</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -1119,21 +1127,9 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1189,18 +1185,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1279,15 +1274,20 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1346,20 +1346,15 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1428,15 +1423,20 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1510,12 +1510,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1569,20 +1569,15 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1645,15 +1640,20 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1712,19 +1712,15 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1795,18 +1791,17 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1877,15 +1872,20 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1954,20 +1954,15 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Drive Red Camry back
-work w/ Josh</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2030,18 +2025,18 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Drive Red Camry back
+work w/ Josh</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2098,17 +2093,18 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2165,12 +2161,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2224,12 +2220,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2281,9 +2277,21 @@
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2376,11 +2384,7 @@
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2429,7 +2433,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2476,7 +2480,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2527,7 +2531,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2578,7 +2582,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2629,7 +2633,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2692,7 +2696,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2751,7 +2755,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah &amp; Savannah at Hwy N PnR</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2808,7 +2812,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah &amp; Savannah at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -2862,21 +2870,9 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2931,17 +2927,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store?</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -2982,17 +2978,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store?</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3057,15 +3053,19 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3124,19 +3124,15 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3196,18 +3192,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3257,18 +3252,18 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
           <t>@ Store,
-Train Caitlin</t>
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3317,17 +3312,18 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Caitlin</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3385,18 +3381,17 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3437,17 +3432,18 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3492,18 +3488,17 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3536,17 +3531,18 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3579,12 +3575,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3622,12 +3618,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3677,12 +3673,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3728,12 +3724,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3779,12 +3775,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3830,12 +3826,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3875,9 +3871,21 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
@@ -3958,11 +3966,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3999,7 +4003,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4038,7 +4042,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4077,7 +4081,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4116,7 +4120,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4145,7 +4149,11 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -4171,21 +4179,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4212,15 +4208,19 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4247,12 +4247,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4282,12 +4282,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4317,12 +4317,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4352,12 +4352,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4372,6 +4372,41 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -1674,10 +1674,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1747,15 +1751,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1829,12 +1828,13 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>work w/ Josh</t>
+          <t>@ Store, Driver,
+Rx</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -1911,13 +1911,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>work w/ Josh</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1983,12 +1982,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2183,9 +2183,21 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2594,12 +2606,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2645,12 +2657,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2708,7 +2720,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2767,7 +2779,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2826,7 +2838,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2881,7 +2893,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2948,7 +2960,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2999,7 +3011,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3074,7 +3086,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3141,7 +3153,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3206,9 +3218,21 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3328,11 +3352,7 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3398,7 +3418,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3450,7 +3470,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3505,7 +3525,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3549,7 +3569,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3590,7 +3610,11 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3632,21 +3656,9 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3689,15 +3701,19 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3740,12 +3756,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3791,12 +3807,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3842,12 +3858,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3889,12 +3905,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3934,8 +3950,16 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -3000,7 +3000,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store?</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>

--- a/04-06-25 to 04-12-25 Madison Schedule.xlsx
+++ b/04-06-25 to 04-12-25 Madison Schedule.xlsx
@@ -1062,7 +1062,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>*Nate taking Angela and to the store.  Meet at 4:30 am</t>
+          <t>*Nate taking Angela to the store.  Meet at 4:30 am</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
